--- a/biology/Botanique/Edelweiss/Edelweiss.xlsx
+++ b/biology/Botanique/Edelweiss/Edelweiss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leontopodium alpinum
-L'Édelweiss, ou Edelweiss[1] (Leontopodium nivale subsp. alpinum ou simplement Leontopodium alpinum[2]), est une espèce de plantes à fleurs de la famille des Astéracées.
-C'est l'une des plus célèbres plantes de montagne, en partie en raison de sa rareté[3]. Son nom provient de l'allemand edel, « noble », et weiß, « blanc ». En Suisse, l'edelweiss est souvent utilisé comme un véritable emblème national, il figure notamment sur la pièce de 5 francs suisses.
-L'Édelweiss a plusieurs noms utilisés en France, comme Pied-de-lion, Gnaphale à pied de lion[4], Étoile d'argent, Étoile des neiges ou encore Étoile des glaciers[4].
+L'Édelweiss, ou Edelweiss (Leontopodium nivale subsp. alpinum ou simplement Leontopodium alpinum), est une espèce de plantes à fleurs de la famille des Astéracées.
+C'est l'une des plus célèbres plantes de montagne, en partie en raison de sa rareté. Son nom provient de l'allemand edel, « noble », et weiß, « blanc ». En Suisse, l'edelweiss est souvent utilisé comme un véritable emblème national, il figure notamment sur la pièce de 5 francs suisses.
+L'Édelweiss a plusieurs noms utilisés en France, comme Pied-de-lion, Gnaphale à pied de lion, Étoile d'argent, Étoile des neiges ou encore Étoile des glaciers.
 </t>
         </is>
       </c>
@@ -514,13 +526,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace, qui mesure de 3 à 20 cm de haut ;
 Feuilles : feutrées de poils blancs laineux (tomenteuses) ;
 Fleurs : feutrées de poils blancs laineux avec une inflorescence caractéristique en assemblage de 5 à 6 petits capitules jaunes (1/2 cm) entourés de folioles disposées en étoile (inflorescence composée : super capitule formée d'un capitule de capitules) ;
 Floraison : de juillet à septembre ;
-Pollinisation : essentiellement (80 %) par des mouches. Le nectar d'edelweiss contient des acides aminés nécessaires à leur métabolisme[5] ;
+Pollinisation : essentiellement (80 %) par des mouches. Le nectar d'edelweiss contient des acides aminés nécessaires à leur métabolisme ;
 Toxicité : non ;
 Pharmacopée : utilisé en médecine populaire contre les douleurs abdominales, les angines, les bronchites et les diarrhées ou dysenteries[réf. nécessaire]. L'industrie cosmétique s'intéresse à ses vertus antioxydantes.
 </t>
@@ -551,11 +565,13 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Habitat : pelouses rocailleuses, vires rocheuses, prairies de fauche (plus rarement), inégalement répartie, préfère les terrains calcaires de haute altitude
-Altitude : moyenne de 1 270 à 3 000 mètres d'altitude[4]
-Répartition géographique : Europe, Asie[4]</t>
+Altitude : moyenne de 1 270 à 3 000 mètres d'altitude
+Répartition géographique : Europe, Asie</t>
         </is>
       </c>
     </row>
@@ -583,9 +599,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'edelweiss est cultivé en Valais et est utilisé par l'industrie cosmétique pour ses propriétés anti-inflammatoires et la valeur marketing de son image. On le trouve également dans certains produits gastronomiques comme le chocolat ou la fondue, ainsi qu'en liqueur[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'edelweiss est cultivé en Valais et est utilisé par l'industrie cosmétique pour ses propriétés anti-inflammatoires et la valeur marketing de son image. On le trouve également dans certains produits gastronomiques comme le chocolat ou la fondue, ainsi qu'en liqueur.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est protégée dès 1874 en Allemagne et en Autriche puis dès 1879 en Suisse[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est protégée dès 1874 en Allemagne et en Autriche puis dès 1879 en Suisse.
 </t>
         </is>
       </c>
@@ -647,10 +667,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Langage des fleurs
-Dans le langage des fleurs, l'edelweiss symbolise le noble souvenir d'un amour passé[8].
-Imagerie populaire
-Dans le Tyrol, et dans l'arc alpin en général, l'edelweiss représenterait la pureté et l'amour et la coutume voulait que, le jour du mariage, le fiancé en offre un bouquet à sa promise, toute une imagerie populaire s'est développée dans les régions alpines et a influencé de nombreuses personnes[4],[9],[10].
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, l'edelweiss symbolise le noble souvenir d'un amour passé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Edelweiss</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Edelweiss</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Imagerie populaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le Tyrol, et dans l'arc alpin en général, l'edelweiss représenterait la pureté et l'amour et la coutume voulait que, le jour du mariage, le fiancé en offre un bouquet à sa promise, toute une imagerie populaire s'est développée dans les régions alpines et a influencé de nombreuses personnes.
 			Pièce de 5 francs suisses.
 			Pièce commémorative de la FIFA, 2004 Graveur : Joaquin Jimenez.
 			Insigne des troupes de montagne en Autriche et en Allemagne.
